--- a/Projects/PERNODUS/Data/Pernod_US KPI_PS v0.1.xlsx
+++ b/Projects/PERNODUS/Data/Pernod_US KPI_PS v0.1.xlsx
@@ -564,7 +564,7 @@
     <t xml:space="preserve">STOLICHNAYA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAZADORES TEQUILA</t>
+    <t xml:space="preserve">CAZADORES</t>
   </si>
   <si>
     <t xml:space="preserve">JAMESON</t>
@@ -1216,14 +1216,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="15:15 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.1295546558705"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1360,12 +1360,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="15:15 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1408,15 +1408,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="15:15 C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1537,20 +1537,19 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="15:15 F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.550607287449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.404858299595"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2596,21 +2595,21 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="15:15 C50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -3579,15 +3578,15 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="15:15 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3737,17 +3736,17 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4231,15 +4230,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="15:15 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="99.2995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="100.263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4381,14 +4380,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="15:15 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4470,16 +4469,16 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="15:15 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4565,15 +4564,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="15:15 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="172.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="174.603238866397"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
